--- a/estructurasDatosWordix.xlsx
+++ b/estructurasDatosWordix.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C695C0F0-F382-43B4-8E4F-B97B208D8144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="626" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EstructuraDatos" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="125">
   <si>
     <t>$coleccionPalabras=</t>
   </si>
@@ -52,23 +53,362 @@
     <t>//valores</t>
   </si>
   <si>
-    <t>**** COMPLETAR ****</t>
-  </si>
-  <si>
     <t>Ejemplo de cómo representar las estructuras de datos según lo visto en teoría:</t>
   </si>
   <si>
-    <t>A continuación puede agregar el resto de las estructuras de datos</t>
-  </si>
-  <si>
     <t>¿Para qué se utiliza?: guarda las palabras que se pueden elegidas para jugar wordix</t>
+  </si>
+  <si>
+    <t>$coleccionPartidas=</t>
+  </si>
+  <si>
+    <t>"palabraWordix"</t>
+  </si>
+  <si>
+    <t>"QUESO"</t>
+  </si>
+  <si>
+    <t>"jugador"</t>
+  </si>
+  <si>
+    <t>intentos</t>
+  </si>
+  <si>
+    <t>puntaje</t>
+  </si>
+  <si>
+    <t>"pau"</t>
+  </si>
+  <si>
+    <t>"CASAS"</t>
+  </si>
+  <si>
+    <t>"SILLA"</t>
+  </si>
+  <si>
+    <t>"FUEGO"</t>
+  </si>
+  <si>
+    <t>"YUYOS"</t>
+  </si>
+  <si>
+    <t>"RASGO"</t>
+  </si>
+  <si>
+    <t>"NAVES"</t>
+  </si>
+  <si>
+    <t>"NEGRO"</t>
+  </si>
+  <si>
+    <t>"alex"</t>
+  </si>
+  <si>
+    <t>"agus"</t>
+  </si>
+  <si>
+    <t>"alejo"</t>
+  </si>
+  <si>
+    <t>"linda"</t>
+  </si>
+  <si>
+    <t>"valen"</t>
+  </si>
+  <si>
+    <t>"angela"</t>
+  </si>
+  <si>
+    <t>Tipo: multidimensionales  (Un arreglo indexado que contiene un arreglos asociativo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> string , int</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: guarda los datos de las partidas de wordix</t>
+  </si>
+  <si>
+    <t>$resumen=</t>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nombreJugador</t>
+    </r>
+  </si>
+  <si>
+    <t>$totalPartidas</t>
+  </si>
+  <si>
+    <t>$puntaje</t>
+  </si>
+  <si>
+    <t>$victorias</t>
+  </si>
+  <si>
+    <t>$porcent</t>
+  </si>
+  <si>
+    <t>$intento1</t>
+  </si>
+  <si>
+    <t>$intento2</t>
+  </si>
+  <si>
+    <t>$intento3</t>
+  </si>
+  <si>
+    <t>$intento4</t>
+  </si>
+  <si>
+    <t>$intento5</t>
+  </si>
+  <si>
+    <t>"partidas"</t>
+  </si>
+  <si>
+    <t>"puntaje"</t>
+  </si>
+  <si>
+    <t>"victorias"</t>
+  </si>
+  <si>
+    <t>"porcentaje"</t>
+  </si>
+  <si>
+    <t>"intento1"</t>
+  </si>
+  <si>
+    <t>"intento2"</t>
+  </si>
+  <si>
+    <t>"intento3"</t>
+  </si>
+  <si>
+    <t>"intento4"</t>
+  </si>
+  <si>
+    <t>"intento6"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> string </t>
+  </si>
+  <si>
+    <t>$teclado=</t>
+  </si>
+  <si>
+    <t>$ordenTeclado=</t>
+  </si>
+  <si>
+    <t>"Q"</t>
+  </si>
+  <si>
+    <t>"W"</t>
+  </si>
+  <si>
+    <t>"E"</t>
+  </si>
+  <si>
+    <t>"R"</t>
+  </si>
+  <si>
+    <t>"T"</t>
+  </si>
+  <si>
+    <t>"Y"</t>
+  </si>
+  <si>
+    <t>"U"</t>
+  </si>
+  <si>
+    <t>"I"</t>
+  </si>
+  <si>
+    <t>"O"</t>
+  </si>
+  <si>
+    <t>"P"</t>
+  </si>
+  <si>
+    <t>"A"</t>
+  </si>
+  <si>
+    <t>"S"</t>
+  </si>
+  <si>
+    <t>"D"</t>
+  </si>
+  <si>
+    <t>"F"</t>
+  </si>
+  <si>
+    <t>"G"</t>
+  </si>
+  <si>
+    <t>"H"</t>
+  </si>
+  <si>
+    <t>"J"</t>
+  </si>
+  <si>
+    <t>"K"</t>
+  </si>
+  <si>
+    <t>"L"</t>
+  </si>
+  <si>
+    <t>"Z"</t>
+  </si>
+  <si>
+    <t>"X"</t>
+  </si>
+  <si>
+    <t>"C"</t>
+  </si>
+  <si>
+    <t>"V"</t>
+  </si>
+  <si>
+    <t>"B"</t>
+  </si>
+  <si>
+    <t>"N"</t>
+  </si>
+  <si>
+    <t>"M"</t>
+  </si>
+  <si>
+    <t>Tipos de datos: almacena caracteres</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: ordena el teclado</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: guarda el resumen de partidas del usuario</t>
+  </si>
+  <si>
+    <t>$vocales=</t>
+  </si>
+  <si>
+    <t>"a"</t>
+  </si>
+  <si>
+    <t>"b"</t>
+  </si>
+  <si>
+    <t>"c"</t>
+  </si>
+  <si>
+    <t>"d"</t>
+  </si>
+  <si>
+    <t>"e"</t>
+  </si>
+  <si>
+    <t>"i"</t>
+  </si>
+  <si>
+    <t>"o"</t>
+  </si>
+  <si>
+    <t>"u"</t>
+  </si>
+  <si>
+    <t>$hastaM=</t>
+  </si>
+  <si>
+    <t>"f"</t>
+  </si>
+  <si>
+    <t>"g"</t>
+  </si>
+  <si>
+    <t>"h"</t>
+  </si>
+  <si>
+    <t>"j"</t>
+  </si>
+  <si>
+    <t>"k"</t>
+  </si>
+  <si>
+    <t>"l"</t>
+  </si>
+  <si>
+    <t>"m"</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: guarda las vocales</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: guarda las consonantes hasta la m</t>
+  </si>
+  <si>
+    <t>$consonantes=</t>
+  </si>
+  <si>
+    <t>"n"</t>
+  </si>
+  <si>
+    <t>"p"</t>
+  </si>
+  <si>
+    <t>"q"</t>
+  </si>
+  <si>
+    <t>"r"</t>
+  </si>
+  <si>
+    <t>"s"</t>
+  </si>
+  <si>
+    <t>"t"</t>
+  </si>
+  <si>
+    <t>"v"</t>
+  </si>
+  <si>
+    <t>"w"</t>
+  </si>
+  <si>
+    <t>"x"</t>
+  </si>
+  <si>
+    <t>"y"</t>
+  </si>
+  <si>
+    <t>"z"</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: guarda las consonantes  despues de la m</t>
+  </si>
+  <si>
+    <t>Tipo: asociativo  (usa indices string)</t>
+  </si>
+  <si>
+    <t>Tipo: asociativo  (usa claves string, int)</t>
+  </si>
+  <si>
+    <t>"intento5"</t>
+  </si>
+  <si>
+    <t>$intento6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,16 +447,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -150,39 +536,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -220,7 +652,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -254,6 +686,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -288,9 +721,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,31 +897,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
@@ -512,7 +946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -535,35 +969,2088 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9">
+        <v>4</v>
+      </c>
+      <c r="G12" s="9">
+        <v>5</v>
+      </c>
+      <c r="H12" s="9">
+        <v>6</v>
+      </c>
+      <c r="I12" s="9">
+        <v>7</v>
+      </c>
+      <c r="J12" s="9">
+        <v>8</v>
+      </c>
+      <c r="K12" s="9">
+        <v>9</v>
+      </c>
+      <c r="L12" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
+      <c r="B13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1">
+        <v>4</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
         <v>12</v>
       </c>
+      <c r="F16" s="1">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1">
+        <v>14</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>13</v>
+      </c>
+      <c r="L16" s="1">
+        <v>14</v>
+      </c>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="7"/>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+      <c r="B64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+      <c r="B73" t="s">
+        <v>121</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+      <c r="B75" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M78" s="7"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="7"/>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" t="s">
+        <v>120</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" s="7"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="7"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="7"/>
+      <c r="L132" s="7"/>
+      <c r="M132" s="7"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="7"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" s="7"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="7"/>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
